--- a/output/bultos_pedido_collahuasi.xlsx
+++ b/output/bultos_pedido_collahuasi.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,217 +470,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL0000004383</t>
+          <t>SAL0000004483</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>11.8</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GSP XL</t>
+          <t>Caja Steitz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SAL0000004376</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>26</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SAL0000004377</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SAL0000004379</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>26</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SAL0000004378</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>26</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SAL0000004380</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SAL0000004381</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SAL0000004382</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SAL0000004384</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>26</v>
-      </c>
-      <c r="F10" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,45 +545,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSP XL</t>
+          <t>Caja Steitz</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>11.8</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GSP Chica</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,181 +608,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL0000004376</t>
+          <t>SAL0000004483</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2140034</v>
+        <v>2140118</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 42</t>
+          <t>STEITZ SECURA SMC 640 GORE BOA S3 NB - MP 277 - 43</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SAL0000004377</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2140034</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 42</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SAL0000004378</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2140031</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 39</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SAL0000004379</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2140034</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 42</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SAL0000004380</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2140034</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 42</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SAL0000004381</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2140034</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 42</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SAL0000004382</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2140034</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 42</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SAL0000004383</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2140034</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 42</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SAL0000004383</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2140038</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 46</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SAL0000004384</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2140033</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 41</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output/bultos_pedido_collahuasi.xlsx
+++ b/output/bultos_pedido_collahuasi.xlsx
@@ -470,25 +470,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL0000004483</t>
+          <t>SAL0000004524</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.8</v>
+        <v>7.29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Caja Steitz</t>
+          <t>GSP 4</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -545,23 +545,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Caja Steitz</t>
+          <t>GSP 4</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8</v>
+        <v>7.29</v>
       </c>
       <c r="D2" t="n">
         <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,19 +608,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL0000004483</t>
+          <t>SAL0000004524</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2140118</v>
+        <v>2140033</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STEITZ SECURA SMC 640 GORE BOA S3 NB - MP 277 - 43</t>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 41</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SAL0000004524</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2140038</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 46</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/bultos_pedido_collahuasi.xlsx
+++ b/output/bultos_pedido_collahuasi.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cajas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ASN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="detalle" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pallets" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cajas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ASN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="detalle" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,17 +439,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Pallet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>LPN</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Peso (kg)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TipoCaja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,25 +471,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL0000004524</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GSP 4</t>
-        </is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAL0000004097</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAL0000004098</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAL0000004099</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAL0000004100</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SAL0000004102</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAL0000004267</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAL0000004267</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAL0000004268</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SAL0000004269</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pallet2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAL0000004245</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pallet2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SAL0000004270</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pallet2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SAL0000004271</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pallet2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAL0000004272</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pallet2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SAL0000004273</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pallet2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SAL0000004274</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -502,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,55 +850,81 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>LPN</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>Peso (kg)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Peso(kg/unid)</t>
+          <t>TipoCaja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Alto(cm/unid)</t>
+          <t>Alto (cm)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ancho(cm/unid)</t>
+          <t>Largo (cm)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Largo(cm/unid)</t>
+          <t>Ancho (cm)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>SAL0000004101</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>GSP 4</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.29</v>
       </c>
       <c r="D2" t="n">
         <v>36</v>
       </c>
       <c r="E2" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2" t="n">
         <v>40</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SAL0000004275</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GSP 3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
         <v>56</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,59 +949,468 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>LPN</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CodItem</t>
+          <t>Unidades</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NomItem</t>
+          <t>Peso(kg/unid)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>Alto(cm/unid)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ancho(cm/unid)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Largo(cm/unid)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL0000004524</t>
+          <t>GSP 4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2140033</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 41</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAL0000004524</t>
+          <t>GSP 3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2140038</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pallet</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pallet</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LPN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CodItem</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NomItem</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SAL0000004097</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SAL0000004098</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2140035</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STEITZ SECURA KST STAVANGER GTX AF NB 46</t>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SAL0000004099</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SAL0000004100</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SAL0000004101</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2140033</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 41</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SAL0000004102</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2140040</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 37</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SAL0000004245</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SAL0000004267</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2140033</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 41</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SAL0000004267</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SAL0000004268</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2140033</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 41</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SAL0000004269</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2140040</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 37</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SAL0000004270</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SAL0000004271</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SAL0000004272</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SAL0000004273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SAL0000004274</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SAL0000004275</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2140035</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output/bultos_pedido_collahuasi.xlsx
+++ b/output/bultos_pedido_collahuasi.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cajas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ASN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="detalle" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pallets" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cajas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ASN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="detalle" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,17 +439,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Pallet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>LPN</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Peso (kg)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TipoCaja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,145 +471,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>SAL0000004478</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAL0000004491</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAL0000004492</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAL0000004492</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAL0000004494</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SAL0000004493</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SAL0000004494</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>56</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SAL0000004528</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,55 +562,105 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>LPN</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>Peso (kg)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Peso(kg/unid)</t>
+          <t>TipoCaja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Alto(cm/unid)</t>
+          <t>Alto (cm)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ancho(cm/unid)</t>
+          <t>Largo (cm)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Largo(cm/unid)</t>
+          <t>Ancho (cm)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>SAL0000004491</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>GSP 3</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
       </c>
       <c r="E2" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2" t="n">
         <v>40</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SAL0000004493</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GSP 2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SAL0000004528</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GSP 3</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
         <v>56</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -690,6 +669,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Peso(kg/unid)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Alto(cm/unid)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ancho(cm/unid)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Largo(cm/unid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSP 3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSP 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSP 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pallet</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/output/bultos_pedido_collahuasi.xlsx
+++ b/output/bultos_pedido_collahuasi.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pallets" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Cajas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ASN" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="detalle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Cajas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ASN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="detalle" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +438,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Pallet</t>
+          <t>LPN</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LPN</t>
+          <t>Peso (kg)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Peso (kg)</t>
+          <t>TipoCaja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,73 +470,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pallet1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>SAL0000004478</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
+      <c r="B2" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Steitz 5</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pallet1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAL0000004492</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
+          <t>SAL0000004491</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Steitz 5</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pallet1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+          <t>SAL0000004492</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Steitz 5</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SAL0000004493</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Steitz 5</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>SAL0000004494</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23</v>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Steitz 5</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SAL0000004528</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Steitz 5</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,105 +633,77 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>LPN</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Peso (kg)</t>
+          <t>Unidades</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TipoCaja</t>
+          <t>Peso(kg/unid)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Alto (cm)</t>
+          <t>Alto(cm/unid)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Largo (cm)</t>
+          <t>Ancho(cm/unid)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Ancho (cm)</t>
+          <t>Largo(cm/unid)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAL0000004491</t>
+          <t>Steitz 5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.06</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAL0000004493</t>
+          <t>Steitz 5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GSP 2</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.88</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SAL0000004528</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>56</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -669,145 +712,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unidades</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Peso(kg/unid)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Alto(cm/unid)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ancho(cm/unid)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Largo(cm/unid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="n">
-        <v>40</v>
-      </c>
-      <c r="F2" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GSP 2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31</v>
-      </c>
-      <c r="E3" t="n">
-        <v>31</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GSP 3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pallet</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>23</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/output/bultos_pedido_collahuasi.xlsx
+++ b/output/bultos_pedido_collahuasi.xlsx
@@ -7,16 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Cajas" sheetId="1" r:id="rId1"/>
-    <sheet name="ASN" sheetId="2" r:id="rId2"/>
-    <sheet name="detalle" sheetId="3" r:id="rId3"/>
+    <sheet name="Pallets" sheetId="1" r:id="rId1"/>
+    <sheet name="Cajas" sheetId="2" r:id="rId2"/>
+    <sheet name="ASN" sheetId="3" r:id="rId3"/>
+    <sheet name="detalle" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+  <si>
+    <t>Pallet</t>
+  </si>
   <si>
     <t>LPN</t>
   </si>
@@ -24,19 +28,70 @@
     <t>Peso (kg)</t>
   </si>
   <si>
+    <t>Alto (cm)</t>
+  </si>
+  <si>
+    <t>Largo (cm)</t>
+  </si>
+  <si>
+    <t>Ancho (cm)</t>
+  </si>
+  <si>
+    <t>Pallet1</t>
+  </si>
+  <si>
+    <t>SAL0000004544</t>
+  </si>
+  <si>
+    <t>SAL0000004543</t>
+  </si>
+  <si>
+    <t>SAL0000004545</t>
+  </si>
+  <si>
+    <t>SAL0000004546</t>
+  </si>
+  <si>
+    <t>SAL0000004547</t>
+  </si>
+  <si>
+    <t>SAL0000004548</t>
+  </si>
+  <si>
+    <t>SAL0000004609</t>
+  </si>
+  <si>
+    <t>SAL0000004615</t>
+  </si>
+  <si>
+    <t>SAL0000004650</t>
+  </si>
+  <si>
+    <t>SAL0000004651</t>
+  </si>
+  <si>
+    <t>SAL0000004652</t>
+  </si>
+  <si>
+    <t>SAL0000004653</t>
+  </si>
+  <si>
     <t>TipoCaja</t>
   </si>
   <si>
-    <t>Alto (cm)</t>
-  </si>
-  <si>
-    <t>Largo (cm)</t>
-  </si>
-  <si>
-    <t>Ancho (cm)</t>
-  </si>
-  <si>
-    <t>SAL0000003573</t>
+    <t>SAL0000004654</t>
+  </si>
+  <si>
+    <t>SAL0000004655</t>
+  </si>
+  <si>
+    <t>SAL0000004663</t>
+  </si>
+  <si>
+    <t>GSP 2</t>
+  </si>
+  <si>
+    <t>BRUBECK</t>
   </si>
   <si>
     <t>GSP 3</t>
@@ -66,7 +121,13 @@
     <t>NomItem</t>
   </si>
   <si>
-    <t>STEITZ SECURA SMC 640 GORE BOA S3 NB - MP 285 - 44</t>
+    <t>STEITZ SECURA KST STAVANGER GTX AF NB 43</t>
+  </si>
+  <si>
+    <t>STEITZ SECURA KST STAVANGER GTX AF NB 41</t>
+  </si>
+  <si>
+    <t>STEITZ SECURA KST STAVANGER GTX AF NB 46</t>
   </si>
 </sst>
 </file>
@@ -424,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,20 +515,240 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>3.48</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>1524</v>
+      </c>
       <c r="D2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>555</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1524</v>
+      </c>
+      <c r="D3">
+        <v>231</v>
+      </c>
+      <c r="E3">
+        <v>555</v>
+      </c>
+      <c r="F3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1524</v>
+      </c>
+      <c r="D4">
+        <v>231</v>
+      </c>
+      <c r="E4">
+        <v>555</v>
+      </c>
+      <c r="F4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1524</v>
+      </c>
+      <c r="D5">
+        <v>231</v>
+      </c>
+      <c r="E5">
+        <v>555</v>
+      </c>
+      <c r="F5">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1524</v>
+      </c>
+      <c r="D6">
+        <v>231</v>
+      </c>
+      <c r="E6">
+        <v>555</v>
+      </c>
+      <c r="F6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1524</v>
+      </c>
+      <c r="D7">
+        <v>231</v>
+      </c>
+      <c r="E7">
+        <v>555</v>
+      </c>
+      <c r="F7">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1524</v>
+      </c>
+      <c r="D8">
+        <v>231</v>
+      </c>
+      <c r="E8">
+        <v>555</v>
+      </c>
+      <c r="F8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1524</v>
+      </c>
+      <c r="D9">
+        <v>231</v>
+      </c>
+      <c r="E9">
+        <v>555</v>
+      </c>
+      <c r="F9">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1524</v>
+      </c>
+      <c r="D10">
+        <v>231</v>
+      </c>
+      <c r="E10">
+        <v>555</v>
+      </c>
+      <c r="F10">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1524</v>
+      </c>
+      <c r="D11">
+        <v>231</v>
+      </c>
+      <c r="E11">
+        <v>555</v>
+      </c>
+      <c r="F11">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1524</v>
+      </c>
+      <c r="D12">
+        <v>231</v>
+      </c>
+      <c r="E12">
+        <v>555</v>
+      </c>
+      <c r="F12">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1524</v>
+      </c>
+      <c r="D13">
+        <v>231</v>
+      </c>
+      <c r="E13">
+        <v>555</v>
+      </c>
+      <c r="F13">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,42 +766,82 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3.48</v>
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>40</v>
       </c>
       <c r="F2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>544</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
         <v>56</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +851,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>544</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1524</v>
+      </c>
+      <c r="D5">
+        <v>231</v>
+      </c>
+      <c r="E5">
+        <v>666</v>
+      </c>
+      <c r="F5">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,29 +972,253 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>2140119</v>
+        <v>2140035</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2140035</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2140035</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2140035</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2140035</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2140035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2140035</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2140035</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2140035</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="B11">
+        <v>2140035</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2140035</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2140035</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>2140035</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2140033</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>2140033</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2140035</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2140038</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
